--- a/packages/jsreport-xlsx/test/xlsx/update-formula-cells-(end-bellow)-loop.xlsx
+++ b/packages/jsreport-xlsx/test/xlsx/update-formula-cells-(end-bellow)-loop.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/workspace/jsreport/jsreport/packages/jsreport-xlsx/test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/workspace/jsreport/jsreport/packages/jsreport-xlsx/test/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615D4A83-4EDE-524D-8C49-C0A2CCD31CA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72C600F-BB5A-2945-BC93-B79AFBCCF5E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8360" yWindow="2880" windowWidth="28040" windowHeight="17440" xr2:uid="{E64D1ECD-F10D-4745-832B-F27334D20F18}"/>
+    <workbookView xWindow="7840" yWindow="1780" windowWidth="28040" windowHeight="17440" xr2:uid="{E64D1ECD-F10D-4745-832B-F27334D20F18}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
